--- a/reports/report_2026-01-01_to_2026-01-31.xlsx
+++ b/reports/report_2026-01-01_to_2026-01-31.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,8 +445,8 @@
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="40" customWidth="1" min="8" max="8"/>
     <col width="40" customWidth="1" min="9" max="9"/>
@@ -505,27 +505,27 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>8 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>14.00 น.</t>
+          <t>09.00 น.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค007/63</t>
+          <t>7440-001-0003-ค122/67</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>กกม.</t>
+          <t>สปท.</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>คุณอัมพิกา</t>
+          <t>นางสาวลักษมี</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>ปริ้นงานเอกสารหน้าไม่ตรง</t>
+          <t>ลงไดร์เวอร์เครื่องสแกน</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>ดำเนินการตั้งค่า Driver Print เป็น A4 เรียบร้อย</t>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
         </is>
       </c>
     </row>
@@ -550,27 +550,27 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>8 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>14.00 น.</t>
+          <t>10.00 น.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค007/63</t>
+          <t>7440-001-0001-ค020/63</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>กกม.</t>
+          <t>กตน.</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>คุณอัมพิกา</t>
+          <t>นายเศรษฐพร</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -580,12 +580,12 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>ปริ้นงานเอกสารหน้าไม่ตรง</t>
+          <t>ติดตั้งเครื่องปริ้น</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>ดำเนินการตั้งค่า Driver Print เป็น A4 เรียบร้อย</t>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
         </is>
       </c>
     </row>
@@ -595,27 +595,27 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>8 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14.00 น.</t>
+          <t>10.00 น.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค007/63</t>
+          <t>7440-001-0003-ค100/67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>กกม.</t>
+          <t>สชง.</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>คุณอัมพิกา</t>
+          <t>นางสาวภคอร</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>ปริ้นงานเอกสารหน้าไม่ตรง</t>
+          <t>เปิดไฟล์เอกสารไม่ได้</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>ดำเนินการตั้งค่า Driver Print เป็น A4 เรียบร้อย</t>
+          <t>ดำเนินการฟอแมต excel แล้ว้เปิดไฟล์ใหม่</t>
         </is>
       </c>
     </row>
@@ -640,42 +640,42 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>8 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14.00 น.</t>
+          <t>11.00 น.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค007/63</t>
+          <t>7440-001-0003-ค091/68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>กกม.</t>
+          <t>กสป.</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>คุณอัมพิกา</t>
+          <t>นายชาคริต</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>ปริ้นงานเอกสารหน้าไม่ตรง</t>
+          <t>เช็คเครื่องปริ้นเพื่อส่งซ่อม</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>ดำเนินการตั้งค่า Driver Print เป็น A4 เรียบร้อย</t>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
         </is>
       </c>
     </row>
@@ -685,27 +685,27 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>8 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14.00 น.</t>
+          <t>13.00 น.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค007/63</t>
+          <t>7440-001-0001-ค020/63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>กกม.</t>
+          <t>กตน.</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>คุณอัมพิกา</t>
+          <t>นายเศรษฐพร</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>ปริ้นงานเอกสารหน้าไม่ตรง</t>
+          <t>ลงเครื่องปริ้นสี</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>ดำเนินการตั้งค่า Driver Print เป็น A4 เรียบร้อย</t>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
         </is>
       </c>
     </row>
@@ -730,32 +730,32 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>9 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10.25 น.</t>
+          <t>14.00 น.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค036/61</t>
+          <t>7440-001-0003-ค015/66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>กสส.</t>
+          <t>กยผ.</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>คุณจิตชยา</t>
+          <t>คุณนนท์</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>ตั้งค่าหน้ากระดาษใหม่</t>
+          <t>กระดาษติดดำเนินการเอากระดาษออก</t>
         </is>
       </c>
     </row>
@@ -775,27 +775,27 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>10 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13.00 น.</t>
+          <t>14.00 น.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค111/67</t>
+          <t>7440-001-0001-ค084/59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>กพส.</t>
+          <t>กบค.</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>คุณชนิภรณ์</t>
+          <t>นางสาวเพ็ญพิสุทธิ์</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>เปิดไฟล์งานไม่ได้</t>
+          <t>ลงไดร์เวอร์เครื่องปริ้น</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>ดำเนินการตั้งค่าเปิดไฟล์งานด้วยโปรแกรม PDF เรียบร้อย</t>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>09.36 น.</t>
+          <t>15.00 น.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค023/68</t>
+          <t>7440-001-0003-ค159/67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>กสส.</t>
+          <t>กบค.</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>คุณศิริรัตน์</t>
+          <t>นางสาวเพ็ญพิสุทธิ์</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>หน้าจอฟ้า</t>
+          <t>ติดตั้งเครื่องปริ้น</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>ลงวินโดใหม่</t>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
         </is>
       </c>
     </row>
@@ -865,42 +865,4137 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11 มกราคม 2569</t>
+          <t>20 มกราคม 2569</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10.11 น.</t>
+          <t>15.00 น.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7440-001-0001-ค026/68</t>
+          <t>7440-001-0003-ค073/66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>กสส.</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวศิริรัตน์</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อโน็ตบุ๊คขึ้นจอเพื่อประชุม</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="28" customHeight="1">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>20 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15.30 น.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค160/67</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>กบค.</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวพีทชา</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>สายusbเครื่องปริ้นหัก</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการเปลี่ยนสายใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="28" customHeight="1">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค170/68</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>สคพ.</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>คุณคมเพชร</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>ใช้งาน touchpad ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลง Driver touchpad ใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="28" customHeight="1">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค183/68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>สคพ.</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>คุณชนสิทธิ์</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>เมาส์ใช้งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>เมาไวเลสเสียดำเนินการเปลี่ยนเป็นเม้าท์มีสาย</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค088/62</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>นางนัยนา</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรมสแกนเอกสาร</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="28" customHeight="1">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค170/67</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>กชอ.</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวกมลา</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>การดาษติดดำเนินการดึงกระดาษออก</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="28" customHeight="1">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค134/67</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>กงค.</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวปวีณ์ธิดา</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์เน็ตใช้งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการกดลืมรหัสแล้วเชื่อมต่อใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="28" customHeight="1">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค002/67</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>กชช.</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวดรรชณีกร</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>ลงเครื่องปริ้นเอกสาร</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="28" customHeight="1">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11.06 น.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค162/67</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>กบค.</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>คุณเพ็ญพิสุทธิ์ บุตรพรหม</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องปริ้น ปริ้นไม่ออก</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลบลงเครื่องปริ้นใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="28" customHeight="1">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13.00 น.</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค183/68</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>สคพ.</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวอธิฎาชนันท์</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องเปิดไม่ติด</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการอัพเดทวินโดใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="28" customHeight="1">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค002/63</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวเอื้อมพร</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>เปลี่ยน microsoft เป็นภาษาไทย</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการโหลดภาษาไทยแล้วลงใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="28" customHeight="1">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค003/63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>นายดนิรุท</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>เข้าไดร์กลางไม่ได้</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์เน็ตใช้ไม่ได้ดำเนินการรีสตาทเน็ตแล้วเชื่อมต่อใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="28" customHeight="1">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>21 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15.00 น.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค019/67</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวชุติกาญจน์</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลบลงไดร์เวอร์ใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="28" customHeight="1">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค005/67</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>กตน.</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>คุณกานจนา</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>เปิดไฟล์excelไม่ได้</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลบwpsและตั้งค่าการเปิดใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="28" customHeight="1">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>09.00 น.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค020/63</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>กตน.</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>นายเศรษฐพร</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>เซฟงานในกุเกิ้ลโครมไม่ได้</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลบกุเกิ้ลโครมแล้วตั้งค่าใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="28" customHeight="1">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>09.10 น.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-003-ค245/68</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>คุณกาญจณาพร</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อเครื่องสแกนเนอร์</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>ติดตั้ง driver ใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="28" customHeight="1">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค020/63</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>กตน.</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>นายเศรษฐพร</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>เข้า outlook ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการเปลี่ยนไปใช้บราวเซอร์อื่นที่ไม่ใช่ google chorme</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="28" customHeight="1">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค074/67</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวศิริอร</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="28" customHeight="1">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค083/68</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>นางจีรภรณ์</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ลงโปรแกรม PDF </t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="28" customHeight="1">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค087/68</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวอภิญญา</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรมPDF</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="28" customHeight="1">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค092/62</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>นายศุภณัฐ</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="28" customHeight="1">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค094/68</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวจุฑามาส</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="28" customHeight="1">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค067/68</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">นายสุริยา </t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>word ตัวหนังสือแยกออกจากกัน</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>เปลี่ยนมุมมองจากมุมมองเว็บเป็นมุมมองโปรแกรม</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="28" customHeight="1">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>12.30 น.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค118/62</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>กสส.</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวจิตชยา</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>เปิดไฟล์งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>ไฟล์เสียหาย ดำเนินการกู้ไฟล์ใหม่จาก external</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="28" customHeight="1">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>12.30 น.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค075/66</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>กสส.</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวหฤทัย</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>external เสีย</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการกู้ไฟล์งานที่พอจะกู้ได้ออก</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="28" customHeight="1">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>7440-010-0003-ค008/62</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวธมลวรรณ</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องปริ้นใช้ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>ขึ้น error 171 ตัวดรัมเสีย ดำเนินการส่งซ่อมภายนอก</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="28" customHeight="1">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>7440-010-0001-ค037/63</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">นางสาว สุจิตรา </t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องแจ้งเตือนเปลี่ยนดรัม ดำเนินการเปลี่ยนดรัม</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="28" customHeight="1">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>22 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>7440-010-0002-ค018/63</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวสุจิตรา</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องสแกน สแกนเเล้วเป้นเส้น</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>ตัวสแกนมีรอย ดำเนินการทำความสะอาด</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="28" customHeight="1">
+      <c r="A38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>09.00 น.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค087/68</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวอภิญญา</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม microsoft</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="28" customHeight="1">
+      <c r="A39" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>09.00 น.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค074/67</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวศิริอร</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องขึ้นจอฟ้า</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการล้างเครื่องลงวินโดใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="28" customHeight="1">
+      <c r="A40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>09.32 น.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค072/66</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>กบค.</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>คุณสุจิตตา เนตรนพ</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>ติดตั้งโปรแกรม Adobe reader</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>ติดตั้งโปรแกรม และตั้งค่าใช้งาน</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="28" customHeight="1">
+      <c r="A41" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>10.30 น.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค013/63</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>กสร.</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวปาวิกา</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>เปิดโปรแกรม PDF ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลบลงโปรแกรมใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="28" customHeight="1">
+      <c r="A42" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค061/67</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>กสร.</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวกัญญ์วรา</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อเครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="28" customHeight="1">
+      <c r="A43" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค066/66</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>ห้องอธิบดี</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>นายเศรษฐวุฒิ</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตั้งค่าเครื่องปริ้นเป็นค่าเริ่มต้นใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="28" customHeight="1">
+      <c r="A44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>13.30 น.</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค160/67</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>กบค.</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวพีทชา</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>ตั้งห้องประชุมเพื่อประชุมออนไลน์</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="28" customHeight="1">
+      <c r="A45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>13.30 น.</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค091/68</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>นายชาคริต</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="28" customHeight="1">
+      <c r="A46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>13.30 น.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค003/65</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>นายศุภณัฐ</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อเครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="28" customHeight="1">
+      <c r="A47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>13.33 น.</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค075/67</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>นายภูมิใจ</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>ตั้งค่า microsoft เป็นภาษาไทย</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="28" customHeight="1">
+      <c r="A48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>14.30 น.</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค005/63</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">นายธนทร </t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตั้งค่าหน้ากระดาษใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="28" customHeight="1">
+      <c r="A49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>14.30 น.</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค003/63</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>นายดนิรุท</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์ดน็ตใช้งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินตั้งให้เชื่อต่อแบบ mac address auto แล้วเชื่อมต่อใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="28" customHeight="1">
+      <c r="A50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>23 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>15.00 น.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค093/62</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">นายอานนท์ </t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อเครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="28" customHeight="1">
+      <c r="A51" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค018/67</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวพิมพกานต์</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>ตั้งห้องประชุมออนไลน์ เช็คไมค์และระบบเสียง</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="28" customHeight="1">
+      <c r="A52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค112/67</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
           <t>สชง.</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>คุณรสริน</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Software</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">เปิดเครื่องใช้งานช้า </t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>ดำเนินการ Update Windows เรียบร้อย</t>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวณัฐธิดา</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>ตั้งห้องประชุมออนไลน์ เช็คไมค์และระบบเสียง</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="28" customHeight="1">
+      <c r="A53" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>09.00 น.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค075/66</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>กสส.</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวหฤทัย</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการเชื่อมต่อเครื่องปริ้นใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="28" customHeight="1">
+      <c r="A54" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>09.00 น.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค043/63</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>กชอ.</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวสุดารัตน์</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องค้างเปิดใช้งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการอัพเดทวินโดแล้วใช้งานใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="28" customHeight="1">
+      <c r="A55" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>09.30 น.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค002/67</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>กชช.</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวดรรชณีกร</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>เปิดไฟล์ PDF ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลงโปรแกรม PDF gear เพื่อใช้งาน</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="28" customHeight="1">
+      <c r="A56" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>11.30 น.</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค058/67</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>กสร.</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>นายปริวรรต</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>ลงไดร์เวอร์เครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="28" customHeight="1">
+      <c r="A57" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>11.30 น.</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค049/67</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>กสร.</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">นางสาวนิชานันท์ </t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>แชร์เครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="28" customHeight="1">
+      <c r="A58" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>13.30 น.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค116/68</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>กสส.</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">นางสาวสโรชา </t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>ทัชแพดใช้งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลงไดร์เวอร์ทัชแพดใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="28" customHeight="1">
+      <c r="A59" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>13.30 น.</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค131/68</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>กสส.</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวจิตชยา</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงาน word ไม่ตรงตาม รีวิว</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการปรับตั้งค่าหน้ากระดาษที่เครื่องปริ้นให้ปริ้นแบบ A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="28" customHeight="1">
+      <c r="A60" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค048/67</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>กสร.</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>นายโรจน์ศักดิ์</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>เข้าไดร์แชร์ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์เน็ตขึ้นตัวเหลือง ดำเนินการ restart services wired แล้วเชื่อมต่อใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="28" customHeight="1">
+      <c r="A61" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>14.30 น.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค113/67</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวพรลภัส</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>เข้าอินเตอร์เน็ตไม่ได้</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตั้งค่าอินเตอร์เน็ตให้เป็นการเชื่อมต่อแบบ Auto mac address</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="28" customHeight="1">
+      <c r="A62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>14.30 น.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค117/67</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวสมใจ</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>เสียบเม้าในช่อง usb แล้วใช้ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลงไดร์เวอร์ช่อง USB ยี่ห้อ Asus ใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="28" customHeight="1">
+      <c r="A63" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>26 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>15.00 น.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค169/67</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>กชอ.</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวอุษา</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>กระดาษติดทำการเอากระดาษออก</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="28" customHeight="1">
+      <c r="A64" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค093/62</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>นายอานนท์</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ลงโปรแกรม PDF </t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="28" customHeight="1">
+      <c r="A65" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค083/68</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>นางจีรภรณ์</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="28" customHeight="1">
+      <c r="A66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค086/68</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>นายเจิมปุญญ์</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินลงตามคอขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="28" customHeight="1">
+      <c r="A67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค075/67</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>กสป.</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>นายภูมิใจ</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="28" customHeight="1">
+      <c r="A68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>11.30 น.</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค078/68</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>กยผ.</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>นางศิวพร</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>ติดตั้งเครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="28" customHeight="1">
+      <c r="A69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค163/67</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>กยผ.</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวนภัสสรณ์</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อ WiFi ไม่ได้</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการ Reset Network แล้วเชื่อมต่อใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="28" customHeight="1">
+      <c r="A70" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>14.30 น.</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค185/68</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>นายพันจักร</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>เปิดใช้งานเครื่องค้าง</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการ Update Windows ใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="28" customHeight="1">
+      <c r="A71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>15.30 น.</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค003/63</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>นายดนิรุท</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>แชร์ไฟล์ไดร์ฟกลาง</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการแชร์ไฟล์ไดร์ฟกลางเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="28" customHeight="1">
+      <c r="A72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>15.30 น.</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค042/66</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>สคพ.</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>นายนัฐพล</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>เปิดใช้งานโปรแกรม Line แล้วค้าง</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลงโปรแกรม Line ใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="28" customHeight="1">
+      <c r="A73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>15.30 น.</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค123/62</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>สคพ.</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวนันทยา</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานเอกสารไม่ออก</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการ Restart Print Spooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="28" customHeight="1">
+      <c r="A74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>27 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>16.00 น.</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค102/67</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>นายสกล</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>Printer OKI B412 ขึ้น Error 08</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการเปลี่ยนโทนเนอร์ให้ตรงกับรุ่นที่ใช้เรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="28" customHeight="1">
+      <c r="A75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>09.00 น.</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค020/63</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>กตน.</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>คุณเศรษฐพร</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>PC ไม่เชื่อมต่อเครื่องสแกนเนอร์</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>อัปเดทDriverใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="28" customHeight="1">
+      <c r="A76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>09.30 น.</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค009/67</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>กตน.</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวนิรดา</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องปริ้นหลุดการเชื่อมต่อ ดำเนินการลงไดร์เวอร์และเชื่อมต่อใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="28" customHeight="1">
+      <c r="A77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>09.30 น.</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค008/67</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>กตน.</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวฐิติกานต์</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อเครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="28" customHeight="1">
+      <c r="A78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค205/68</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวปาริชาติ</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์เน็ตเชื่อมต่อไม่ได้ทำให้ปริ้นงานไม่ออกดำเนินการเชื่อมต่ออินเตอร์เน็ตใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="28" customHeight="1">
+      <c r="A79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค120/67</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">นายเอกพจน์ </t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>กดเปลี่ยนภาษาในwordไม่ได้</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการอัพเดทไมโครซอฟให้มีภาษาไทย</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="28" customHeight="1">
+      <c r="A80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค202/68</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวสวิตตา</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>เปิดใช้งานโปรแกรมPDFไม่ได้</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลงโปรแกรม Acrobat PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="28" customHeight="1">
+      <c r="A81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>11.30 น.</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>7440-010-0003-ค035/62</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>สคพ.</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>คุณวีรปรียา นวลจันทร์</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานเป็นเส้นเหลือง</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>เปลี่ยนตลับหมึกสีใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="28" customHeight="1">
+      <c r="A82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>13.30 น.</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค204/68</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวนิชานันท์</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>เปิดห้อวประชุม Webex</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="28" customHeight="1">
+      <c r="A83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>14.30 น.</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค116/67</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวกมลวรรณ</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานเอกสารไม่ออก</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการ Restart Print Spooler</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="28" customHeight="1">
+      <c r="A84" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>14.33 น.</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค113/67</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวพรลภัส</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>เข้าไดร์เอาไฟล์งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการอัพเดทวินโดแล้วเปิดไดร์ใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="28" customHeight="1">
+      <c r="A85" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>15.30 น.</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค002/67</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>กชช.</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวดรรชณีกร</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>แก้เอกสารไม่ได้</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการลงโปรแกรม Acrobat PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="28" customHeight="1">
+      <c r="A86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>15.50 น.</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค038/68</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวจุธามาศ</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>เปิดเครื่องแล้วค้างที่หน้า Desktop</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการอัพเดทวินโดใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="28" customHeight="1">
+      <c r="A87" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>28 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>16.00 น.</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค033/67</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวปรารถนา</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>Notebook ไม่เจอพอต USB ดำเนินการลบพอตเชื่อมต่อ USB เครื่องปริ้นเเล้วแอดใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="28" customHeight="1">
+      <c r="A88" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>08.30 น.</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค204/68</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>สชง.</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวนิชานันท์</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>เปิดห้องประชุม Webex</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="28" customHeight="1">
+      <c r="A89" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>09.00 น.</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค020/67</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวรอซามี่</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เข้าไดร์แชร์ไม่ได้ </t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์เน็ตไม่ได้เชื่อมต่อ ดำเนินการเชื่อมต่อใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="28" customHeight="1">
+      <c r="A90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>10.00 น.</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค031/68</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>กพส.</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>นางพรทิพย์</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>ไมโครซอฟไม่มีเมนูภาษาไทย</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการดาวโหลดแพทภาษาไทยมาใช้งาน</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="28" customHeight="1">
+      <c r="A91" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>11.30 น.</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค030/66</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>กสส.</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวณฤดี</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="28" customHeight="1">
+      <c r="A92" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>13.30 น.</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค086/62</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>กชอ.</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>นายอัครเดช</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์เน็ตใช้งานไม่ได้</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>User เปลี่ยน Password ดำเนินการใส่ Password ใหม่เพื่อใช้งาน</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="28" customHeight="1">
+      <c r="A93" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค072/66</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>กบค.</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวสุจิตตา</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr">
+        <is>
+          <t>ตั้งค่าโปรแกรม Acrobat เป็นค่าเริ่มต้นตอนเปิด</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="28" customHeight="1">
+      <c r="A94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค071/66</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>กบค.</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>นายสุนัน</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>ติดตั้งเครื่องปริ้นจุดใหม่</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องปริ้นมีความยาวสาย USB ไม่พอ ดำเนินการติดต่อ USER ผู้ใช้งานให้เปลี่ยนสายให้ยาวขึ้น</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="28" customHeight="1">
+      <c r="A95" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>14.00 น.</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค085/62</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>ห้องอธิบดี</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>นางฐิติพร</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>เช็คการเชื่อมต่อเครื่องปริ้นเพื่อติดตั้ง</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องปริ้นสามารถเชื่อมต่อได้แต่ยังไม่สามารถติดตั้งได้เนื่องจากเครื่องปริ้นไม่มีหมึก</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="28" customHeight="1">
+      <c r="A96" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>15.00 น.</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0001-ค044/63</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>กชอ.</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>นางสาววรรณฤดี</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>อินเตอร์เน็ตหลุดบ่อย</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการอัพเดทไดรืเวอร์ USB เชื่อมต่อไวไฟใหม่</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="28" customHeight="1">
+      <c r="A97" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>29 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>16.00 น.</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค143/67</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>กงค.</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวพัชรินทร์</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>Excel ไม่ตรงตามรีวิว</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการปรับตั้งค่าการปริ้นเป็น A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="28" customHeight="1">
+      <c r="A98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>30 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>10.30 น.</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค096/68</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>กสร.</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>คุณฐิตาภา</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>ติดตั้งโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>ติดตั้งโปรแกรม PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="28" customHeight="1">
+      <c r="A99" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>30 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>10.30 น.</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค034/66</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>กกม.</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>นางอัมพิกา</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>ลงโปรแกรม PDF</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="28" customHeight="1">
+      <c r="A100" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>30 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>10.30 น.</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>7440-010-0001-ค001/67</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>สปท.</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>นายกรุณา</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>เครื่องปริ้น ปริ้นงานไม่ออก</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>กระดาษติดดำเนินการเอากระดาษออก</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="28" customHeight="1">
+      <c r="A101" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>30 มกราคม 2569</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>11.00 น.</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>7440-001-0003-ค213/68</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>สปท.</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>นางสาวลักษมี​</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>เชื่อมต่อเครื่องปริ้น</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>ดำเนินการตามคำขอเรียบร้อย</t>
         </is>
       </c>
     </row>
